--- a/Data/EC/NIT-9008673523.xlsx
+++ b/Data/EC/NIT-9008673523.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA49FF0F-195A-4344-8427-895ED6522C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35DADEE6-8EEC-430F-8EFC-7E2F0E0D0088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{39A3D231-48FB-46D5-A80A-6D610A3CBDD0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1E73E04-0091-4307-996E-3642BCCEE695}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,259 +71,259 @@
     <t>MAYRA ALEJANDRA BUENDIA DE ORO</t>
   </si>
   <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>951739003081985</t>
+  </si>
+  <si>
+    <t>DAYANA DEL VALLE FALCO OJEDA</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
     <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>951739003081985</t>
-  </si>
-  <si>
-    <t>DAYANA DEL VALLE FALCO OJEDA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -422,7 +422,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -435,9 +437,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -637,23 +637,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,10 +681,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,7 +737,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB86FBF-02AF-8404-054D-6BF355450C24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A94217-496A-7213-9152-1EC4EEF53F88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA64FD6-F926-4296-A6E0-7E5563B5767B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A2303B-159A-4ABE-B058-1C7E64648BFC}">
   <dimension ref="B2:J184"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1266,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>18750</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1300,16 +1300,16 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="18">
         <v>31249</v>
@@ -1332,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>31249</v>
@@ -1346,16 +1346,16 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
@@ -1378,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1392,13 +1392,13 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1438,16 +1438,16 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1470,7 +1470,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1484,16 +1484,16 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1516,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1530,16 +1530,16 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1562,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1576,16 +1576,16 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1608,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1622,16 +1622,16 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1654,7 +1654,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1668,16 +1668,16 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1700,7 +1700,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1714,16 +1714,16 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1746,7 +1746,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1760,16 +1760,16 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1792,7 +1792,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1806,16 +1806,16 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1838,7 +1838,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1852,16 +1852,16 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1884,7 +1884,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1898,16 +1898,16 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1930,7 +1930,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1976,7 +1976,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -1990,16 +1990,16 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -2022,7 +2022,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -2036,16 +2036,16 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -2068,7 +2068,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2082,16 +2082,16 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2114,7 +2114,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2128,16 +2128,16 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2160,7 +2160,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2174,16 +2174,16 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2206,7 +2206,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2220,16 +2220,16 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2252,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2266,16 +2266,16 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2298,7 +2298,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2312,16 +2312,16 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2344,7 +2344,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2358,16 +2358,16 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2390,7 +2390,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2404,16 +2404,16 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2436,7 +2436,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2450,16 +2450,16 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2482,7 +2482,7 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2496,16 +2496,16 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2528,7 +2528,7 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2542,16 +2542,16 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2574,7 +2574,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2588,16 +2588,16 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2620,7 +2620,7 @@
         <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2634,16 +2634,16 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2666,7 +2666,7 @@
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2680,16 +2680,16 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2758,7 +2758,7 @@
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2772,16 +2772,16 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2804,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2818,16 +2818,16 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2850,7 +2850,7 @@
         <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2864,16 +2864,16 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2896,7 +2896,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2910,16 +2910,16 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2942,7 +2942,7 @@
         <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2956,16 +2956,16 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -2988,7 +2988,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3002,16 +3002,16 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -3034,7 +3034,7 @@
         <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3048,16 +3048,16 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3080,7 +3080,7 @@
         <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -3094,16 +3094,16 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3126,7 +3126,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3140,19 +3140,19 @@
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F98" s="18">
-        <v>18750</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3163,16 +3163,16 @@
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3186,16 +3186,16 @@
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
@@ -3209,16 +3209,16 @@
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
@@ -3232,16 +3232,16 @@
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
@@ -3255,16 +3255,16 @@
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
@@ -3278,16 +3278,16 @@
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F104" s="18">
         <v>31249</v>
@@ -3301,16 +3301,16 @@
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
@@ -3324,16 +3324,16 @@
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F106" s="18">
         <v>31249</v>
@@ -3347,16 +3347,16 @@
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F107" s="18">
         <v>31249</v>
@@ -3370,16 +3370,16 @@
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
@@ -3393,16 +3393,16 @@
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3416,16 +3416,16 @@
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F110" s="18">
         <v>31249</v>
@@ -3439,16 +3439,16 @@
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
@@ -3462,16 +3462,16 @@
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
@@ -3485,16 +3485,16 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
@@ -3508,16 +3508,16 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F114" s="18">
         <v>31249</v>
@@ -3531,16 +3531,16 @@
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
@@ -3554,16 +3554,16 @@
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F116" s="18">
         <v>31249</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
@@ -3600,16 +3600,16 @@
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
@@ -3623,16 +3623,16 @@
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
@@ -3646,16 +3646,16 @@
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F120" s="18">
         <v>31249</v>
@@ -3669,16 +3669,16 @@
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
@@ -3692,16 +3692,16 @@
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F122" s="18">
         <v>31249</v>
@@ -3715,16 +3715,16 @@
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F123" s="18">
         <v>31249</v>
@@ -3738,16 +3738,16 @@
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F124" s="18">
         <v>31249</v>
@@ -3761,16 +3761,16 @@
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F125" s="18">
         <v>31249</v>
@@ -3784,16 +3784,16 @@
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F126" s="18">
         <v>31249</v>
@@ -3807,16 +3807,16 @@
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
@@ -3830,16 +3830,16 @@
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F128" s="18">
         <v>31249</v>
@@ -3853,16 +3853,16 @@
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -3876,16 +3876,16 @@
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F130" s="18">
         <v>31249</v>
@@ -3899,16 +3899,16 @@
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F131" s="18">
         <v>31249</v>
@@ -3922,16 +3922,16 @@
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
@@ -3945,16 +3945,16 @@
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -3968,16 +3968,16 @@
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F134" s="18">
         <v>31249</v>
@@ -3991,16 +3991,16 @@
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
@@ -4014,16 +4014,16 @@
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
@@ -4037,16 +4037,16 @@
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -4060,16 +4060,16 @@
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -4083,16 +4083,16 @@
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4106,16 +4106,16 @@
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -4129,16 +4129,16 @@
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4152,16 +4152,16 @@
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4175,16 +4175,16 @@
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4198,16 +4198,16 @@
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
@@ -4221,16 +4221,16 @@
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4244,16 +4244,16 @@
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
@@ -4267,16 +4267,16 @@
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
@@ -4290,16 +4290,16 @@
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
@@ -4313,16 +4313,16 @@
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4336,16 +4336,16 @@
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
@@ -4359,16 +4359,16 @@
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4382,16 +4382,16 @@
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
@@ -4405,16 +4405,16 @@
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="F153" s="18">
         <v>31249</v>
@@ -4428,16 +4428,16 @@
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F154" s="18">
         <v>31249</v>
@@ -4451,16 +4451,16 @@
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F155" s="18">
         <v>31249</v>
@@ -4474,16 +4474,16 @@
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F156" s="18">
         <v>31249</v>
@@ -4497,16 +4497,16 @@
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B157" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F157" s="18">
         <v>31249</v>
@@ -4520,16 +4520,16 @@
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F158" s="18">
         <v>31249</v>
@@ -4543,16 +4543,16 @@
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B159" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
@@ -4566,16 +4566,16 @@
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B160" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F160" s="18">
         <v>31249</v>
@@ -4589,16 +4589,16 @@
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4612,16 +4612,16 @@
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F162" s="18">
         <v>31249</v>
@@ -4635,16 +4635,16 @@
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B163" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F163" s="18">
         <v>31249</v>
@@ -4658,16 +4658,16 @@
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F164" s="18">
         <v>31249</v>
@@ -4681,16 +4681,16 @@
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F165" s="18">
         <v>31249</v>
@@ -4704,16 +4704,16 @@
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F166" s="18">
         <v>31249</v>
@@ -4727,16 +4727,16 @@
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B167" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F167" s="18">
         <v>31249</v>
@@ -4750,16 +4750,16 @@
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F168" s="18">
         <v>31249</v>
@@ -4773,16 +4773,16 @@
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B169" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F169" s="18">
         <v>31249</v>
@@ -4796,16 +4796,16 @@
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B170" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F170" s="18">
         <v>31249</v>
@@ -4819,16 +4819,16 @@
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B171" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F171" s="18">
         <v>31249</v>
@@ -4842,16 +4842,16 @@
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B172" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F172" s="18">
         <v>31249</v>
@@ -4865,16 +4865,16 @@
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B173" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="16" t="s">
         <v>93</v>
-      </c>
-      <c r="C173" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D173" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>86</v>
       </c>
       <c r="F173" s="18">
         <v>31249</v>
@@ -4888,16 +4888,16 @@
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B174" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" s="16" t="s">
         <v>93</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D174" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>87</v>
       </c>
       <c r="F174" s="18">
         <v>31249</v>
@@ -4911,16 +4911,16 @@
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B175" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="D175" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="F175" s="18">
         <v>31249</v>
@@ -4934,16 +4934,16 @@
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B176" s="15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C176" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="D176" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E176" s="16" t="s">
-        <v>89</v>
       </c>
       <c r="F176" s="18">
         <v>31249</v>
@@ -4957,19 +4957,19 @@
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B177" s="15" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D177" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E177" s="16" t="s">
-        <v>90</v>
-      </c>
       <c r="F177" s="18">
-        <v>31249</v>
+        <v>18750</v>
       </c>
       <c r="G177" s="18">
         <v>781242</v>
@@ -4980,19 +4980,19 @@
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B178" s="21" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D178" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E178" s="22" t="s">
-        <v>91</v>
-      </c>
       <c r="F178" s="24">
-        <v>31249</v>
+        <v>18750</v>
       </c>
       <c r="G178" s="24">
         <v>781242</v>

--- a/Data/EC/NIT-9008673523.xlsx
+++ b/Data/EC/NIT-9008673523.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35DADEE6-8EEC-430F-8EFC-7E2F0E0D0088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED7E52D2-0FB7-4281-92C1-2C2FBD376BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1E73E04-0091-4307-996E-3642BCCEE695}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7C2BD8B3-5F9C-44F5-BA15-C59AA22C6441}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -422,9 +422,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -437,7 +435,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -631,29 +631,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -672,19 +672,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,7 +743,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A94217-496A-7213-9152-1EC4EEF53F88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8BA784-B970-A9DC-9A9A-2FF439768FF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,7 +1094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A2303B-159A-4ABE-B058-1C7E64648BFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E6D3ED-DE13-4003-B9F3-8E95675D5FCC}">
   <dimension ref="B2:J184"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1111,49 +1117,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1161,7 +1167,7 @@
         <v>97</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9008673523</v>
       </c>
@@ -1193,7 +1199,7 @@
         <v>98</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>5068589</v>
       </c>
@@ -1262,18 +1268,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G16" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="F16" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G16" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1285,18 +1291,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G17" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G17" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1308,18 +1314,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1331,18 +1337,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1354,18 +1360,18 @@
       <c r="D20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1377,18 +1383,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1400,18 +1406,18 @@
       <c r="D22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1423,18 +1429,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1446,18 +1452,18 @@
       <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1469,18 +1475,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1492,18 +1498,18 @@
       <c r="D26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1515,18 +1521,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1538,18 +1544,18 @@
       <c r="D28" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1561,18 +1567,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1584,18 +1590,18 @@
       <c r="D30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1607,18 +1613,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1630,18 +1636,18 @@
       <c r="D32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1653,18 +1659,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1676,18 +1682,18 @@
       <c r="D34" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1699,18 +1705,18 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1722,18 +1728,18 @@
       <c r="D36" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1745,18 +1751,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1768,18 +1774,18 @@
       <c r="D38" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1791,18 +1797,18 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1814,18 +1820,18 @@
       <c r="D40" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1837,18 +1843,18 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1860,18 +1866,18 @@
       <c r="D42" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G42" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G42" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1883,18 +1889,18 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G43" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G43" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1906,18 +1912,18 @@
       <c r="D44" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G44" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G44" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1929,18 +1935,18 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G45" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G45" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1952,18 +1958,18 @@
       <c r="D46" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G46" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G46" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1975,18 +1981,18 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G47" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G47" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1998,18 +2004,18 @@
       <c r="D48" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G48" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G48" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -2021,18 +2027,18 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G49" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G49" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -2044,18 +2050,18 @@
       <c r="D50" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G50" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G50" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2067,18 +2073,18 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G51" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G51" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2090,18 +2096,18 @@
       <c r="D52" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G52" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G52" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2113,18 +2119,18 @@
       <c r="D53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G53" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G53" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2136,18 +2142,18 @@
       <c r="D54" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G54" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G54" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2159,18 +2165,18 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G55" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G55" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2182,18 +2188,18 @@
       <c r="D56" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G56" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G56" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2205,18 +2211,18 @@
       <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G57" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G57" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2228,18 +2234,18 @@
       <c r="D58" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F58" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G58" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G58" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2251,18 +2257,18 @@
       <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G59" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G59" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2274,18 +2280,18 @@
       <c r="D60" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G60" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G60" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2297,18 +2303,18 @@
       <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F61" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G61" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G61" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2320,18 +2326,18 @@
       <c r="D62" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G62" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G62" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2343,18 +2349,18 @@
       <c r="D63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G63" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G63" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2366,18 +2372,18 @@
       <c r="D64" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G64" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G64" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2389,18 +2395,18 @@
       <c r="D65" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F65" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G65" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G65" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2412,18 +2418,18 @@
       <c r="D66" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F66" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G66" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G66" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2435,18 +2441,18 @@
       <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F67" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G67" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G67" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2458,18 +2464,18 @@
       <c r="D68" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G68" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G68" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2481,18 +2487,18 @@
       <c r="D69" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G69" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G69" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2504,18 +2510,18 @@
       <c r="D70" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G70" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G70" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2527,18 +2533,18 @@
       <c r="D71" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F71" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G71" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G71" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2550,18 +2556,18 @@
       <c r="D72" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F72" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G72" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G72" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2573,18 +2579,18 @@
       <c r="D73" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F73" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G73" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G73" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2596,18 +2602,18 @@
       <c r="D74" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F74" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G74" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G74" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2619,18 +2625,18 @@
       <c r="D75" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F75" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G75" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G75" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2642,18 +2648,18 @@
       <c r="D76" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F76" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G76" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G76" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2665,18 +2671,18 @@
       <c r="D77" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F77" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G77" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G77" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2688,18 +2694,18 @@
       <c r="D78" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F78" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G78" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G78" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2711,18 +2717,18 @@
       <c r="D79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F79" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G79" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G79" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2734,18 +2740,18 @@
       <c r="D80" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F80" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G80" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G80" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2757,18 +2763,18 @@
       <c r="D81" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F81" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G81" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G81" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2780,18 +2786,18 @@
       <c r="D82" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F82" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G82" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G82" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2803,18 +2809,18 @@
       <c r="D83" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F83" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G83" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="F83" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G83" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2826,18 +2832,18 @@
       <c r="D84" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F84" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G84" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="F84" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G84" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2849,18 +2855,18 @@
       <c r="D85" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F85" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G85" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G85" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2872,18 +2878,18 @@
       <c r="D86" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F86" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G86" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="F86" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G86" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2895,18 +2901,18 @@
       <c r="D87" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F87" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G87" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="F87" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G87" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2918,18 +2924,18 @@
       <c r="D88" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F88" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G88" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="F88" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G88" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -2941,18 +2947,18 @@
       <c r="D89" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F89" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G89" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="F89" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G89" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -2964,18 +2970,18 @@
       <c r="D90" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F90" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G90" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="F90" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G90" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -2987,18 +2993,18 @@
       <c r="D91" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F91" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G91" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="F91" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G91" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -3010,18 +3016,18 @@
       <c r="D92" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F92" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G92" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="F92" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G92" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -3033,18 +3039,18 @@
       <c r="D93" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F93" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G93" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="F93" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G93" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -3056,18 +3062,18 @@
       <c r="D94" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F94" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G94" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="F94" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G94" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -3079,18 +3085,18 @@
       <c r="D95" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F95" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G95" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="F95" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G95" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -3102,18 +3108,18 @@
       <c r="D96" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F96" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G96" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="F96" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G96" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3125,18 +3131,18 @@
       <c r="D97" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F97" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G97" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="F97" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G97" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3148,18 +3154,18 @@
       <c r="D98" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G98" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="F98" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G98" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3171,18 +3177,18 @@
       <c r="D99" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F99" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G99" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="F99" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G99" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3194,18 +3200,18 @@
       <c r="D100" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F100" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G100" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="F100" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G100" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3217,18 +3223,18 @@
       <c r="D101" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F101" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G101" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="F101" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G101" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3240,18 +3246,18 @@
       <c r="D102" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F102" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G102" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="F102" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G102" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3263,18 +3269,18 @@
       <c r="D103" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F103" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G103" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="F103" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G103" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3286,18 +3292,18 @@
       <c r="D104" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F104" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G104" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="F104" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G104" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3309,18 +3315,18 @@
       <c r="D105" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F105" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G105" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="F105" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G105" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3332,18 +3338,18 @@
       <c r="D106" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F106" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G106" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="F106" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G106" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
@@ -3355,18 +3361,18 @@
       <c r="D107" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F107" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G107" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="F107" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G107" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
@@ -3378,18 +3384,18 @@
       <c r="D108" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F108" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G108" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="F108" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G108" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
@@ -3401,18 +3407,18 @@
       <c r="D109" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F109" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G109" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="F109" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G109" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
@@ -3424,18 +3430,18 @@
       <c r="D110" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F110" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G110" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="F110" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G110" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
@@ -3447,18 +3453,18 @@
       <c r="D111" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F111" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G111" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="F111" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G111" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
@@ -3470,18 +3476,18 @@
       <c r="D112" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F112" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G112" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="F112" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G112" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
@@ -3493,18 +3499,18 @@
       <c r="D113" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F113" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G113" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="F113" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G113" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
@@ -3516,18 +3522,18 @@
       <c r="D114" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F114" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G114" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="F114" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G114" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
@@ -3539,18 +3545,18 @@
       <c r="D115" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F115" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G115" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="F115" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G115" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
@@ -3562,18 +3568,18 @@
       <c r="D116" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F116" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G116" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="F116" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G116" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
@@ -3585,18 +3591,18 @@
       <c r="D117" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F117" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G117" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
+      <c r="F117" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G117" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
@@ -3608,18 +3614,18 @@
       <c r="D118" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F118" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G118" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="F118" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G118" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
@@ -3631,18 +3637,18 @@
       <c r="D119" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F119" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G119" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="F119" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G119" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="21"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
@@ -3654,18 +3660,18 @@
       <c r="D120" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F120" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G120" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
+      <c r="F120" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G120" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="21"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
@@ -3677,18 +3683,18 @@
       <c r="D121" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F121" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G121" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="F121" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G121" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
@@ -3700,18 +3706,18 @@
       <c r="D122" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F122" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G122" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="F122" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G122" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="21"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
@@ -3723,18 +3729,18 @@
       <c r="D123" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F123" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G123" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
+      <c r="F123" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G123" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="21"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
@@ -3746,18 +3752,18 @@
       <c r="D124" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F124" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G124" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
+      <c r="F124" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G124" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="21"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
@@ -3769,18 +3775,18 @@
       <c r="D125" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F125" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G125" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
+      <c r="F125" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G125" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="21"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
@@ -3792,18 +3798,18 @@
       <c r="D126" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F126" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G126" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
+      <c r="F126" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G126" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="21"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
@@ -3815,18 +3821,18 @@
       <c r="D127" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F127" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G127" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
+      <c r="F127" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G127" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="21"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
@@ -3838,18 +3844,18 @@
       <c r="D128" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F128" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G128" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
+      <c r="F128" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G128" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="21"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
@@ -3861,18 +3867,18 @@
       <c r="D129" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F129" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G129" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
+      <c r="F129" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G129" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="21"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
@@ -3884,18 +3890,18 @@
       <c r="D130" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F130" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G130" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
+      <c r="F130" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G130" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="21"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
@@ -3907,18 +3913,18 @@
       <c r="D131" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F131" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G131" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
+      <c r="F131" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G131" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="21"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
@@ -3930,18 +3936,18 @@
       <c r="D132" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F132" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G132" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
+      <c r="F132" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G132" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="21"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
@@ -3953,18 +3959,18 @@
       <c r="D133" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F133" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G133" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
+      <c r="F133" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G133" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="21"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
@@ -3976,18 +3982,18 @@
       <c r="D134" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E134" s="16" t="s">
+      <c r="E134" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F134" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G134" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
+      <c r="F134" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G134" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="21"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
@@ -3999,18 +4005,18 @@
       <c r="D135" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F135" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G135" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
+      <c r="F135" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G135" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="21"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
@@ -4022,18 +4028,18 @@
       <c r="D136" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F136" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G136" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
+      <c r="F136" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G136" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="21"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
@@ -4045,18 +4051,18 @@
       <c r="D137" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F137" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G137" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
+      <c r="F137" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G137" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="21"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
@@ -4068,18 +4074,18 @@
       <c r="D138" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E138" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F138" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G138" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
+      <c r="F138" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G138" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="21"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
@@ -4091,18 +4097,18 @@
       <c r="D139" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F139" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G139" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
+      <c r="F139" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G139" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="21"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
@@ -4114,18 +4120,18 @@
       <c r="D140" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F140" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G140" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
+      <c r="F140" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G140" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="21"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
@@ -4137,18 +4143,18 @@
       <c r="D141" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F141" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G141" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
+      <c r="F141" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G141" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="21"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
@@ -4160,18 +4166,18 @@
       <c r="D142" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F142" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G142" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
+      <c r="F142" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G142" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="21"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
@@ -4183,18 +4189,18 @@
       <c r="D143" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F143" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G143" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
+      <c r="F143" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G143" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="21"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
@@ -4206,18 +4212,18 @@
       <c r="D144" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="E144" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F144" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G144" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
+      <c r="F144" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G144" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="21"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
@@ -4229,18 +4235,18 @@
       <c r="D145" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E145" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F145" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G145" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
+      <c r="F145" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G145" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="21"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
@@ -4252,18 +4258,18 @@
       <c r="D146" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E146" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F146" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G146" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
+      <c r="F146" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G146" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="21"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
@@ -4275,18 +4281,18 @@
       <c r="D147" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="E147" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F147" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G147" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
+      <c r="F147" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G147" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="21"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
@@ -4298,18 +4304,18 @@
       <c r="D148" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F148" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G148" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
+      <c r="F148" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G148" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="21"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
@@ -4321,18 +4327,18 @@
       <c r="D149" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F149" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G149" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
+      <c r="F149" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G149" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="21"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
@@ -4344,18 +4350,18 @@
       <c r="D150" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="E150" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F150" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G150" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
+      <c r="F150" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G150" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="21"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
@@ -4367,18 +4373,18 @@
       <c r="D151" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="E151" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F151" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G151" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
+      <c r="F151" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G151" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="21"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
@@ -4390,18 +4396,18 @@
       <c r="D152" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="E152" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F152" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G152" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
+      <c r="F152" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G152" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="21"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="15" t="s">
@@ -4413,18 +4419,18 @@
       <c r="D153" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F153" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G153" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
+      <c r="F153" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G153" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="21"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
@@ -4436,18 +4442,18 @@
       <c r="D154" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="E154" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F154" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G154" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
+      <c r="F154" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G154" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="21"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="15" t="s">
@@ -4459,18 +4465,18 @@
       <c r="D155" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E155" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F155" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G155" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
+      <c r="F155" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G155" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="21"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
@@ -4482,18 +4488,18 @@
       <c r="D156" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F156" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G156" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
+      <c r="F156" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G156" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="21"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B157" s="15" t="s">
@@ -4505,18 +4511,18 @@
       <c r="D157" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E157" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F157" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G157" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
+      <c r="F157" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G157" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="21"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
@@ -4528,18 +4534,18 @@
       <c r="D158" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="E158" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F158" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G158" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
+      <c r="F158" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G158" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="21"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B159" s="15" t="s">
@@ -4551,18 +4557,18 @@
       <c r="D159" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E159" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F159" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G159" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
+      <c r="F159" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G159" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="21"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B160" s="15" t="s">
@@ -4574,18 +4580,18 @@
       <c r="D160" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="E160" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F160" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G160" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
+      <c r="F160" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G160" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="21"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
@@ -4597,18 +4603,18 @@
       <c r="D161" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="E161" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F161" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G161" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
+      <c r="F161" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G161" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="21"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
@@ -4620,18 +4626,18 @@
       <c r="D162" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F162" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G162" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
+      <c r="F162" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G162" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="21"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B163" s="15" t="s">
@@ -4643,18 +4649,18 @@
       <c r="D163" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E163" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F163" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G163" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
+      <c r="F163" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G163" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="21"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="15" t="s">
@@ -4666,18 +4672,18 @@
       <c r="D164" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E164" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F164" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G164" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
+      <c r="F164" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G164" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="21"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
@@ -4689,18 +4695,18 @@
       <c r="D165" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="E165" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F165" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G165" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
+      <c r="F165" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G165" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="21"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="15" t="s">
@@ -4712,18 +4718,18 @@
       <c r="D166" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E166" s="16" t="s">
+      <c r="E166" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F166" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G166" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
+      <c r="F166" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G166" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="21"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B167" s="15" t="s">
@@ -4735,18 +4741,18 @@
       <c r="D167" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="E167" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F167" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G167" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="20"/>
+      <c r="F167" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G167" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="21"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
@@ -4758,18 +4764,18 @@
       <c r="D168" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="E168" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F168" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G168" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="20"/>
+      <c r="F168" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G168" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="21"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B169" s="15" t="s">
@@ -4781,18 +4787,18 @@
       <c r="D169" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="E169" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F169" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G169" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="20"/>
+      <c r="F169" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G169" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="21"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B170" s="15" t="s">
@@ -4804,18 +4810,18 @@
       <c r="D170" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="E170" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F170" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G170" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="20"/>
+      <c r="F170" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G170" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="21"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B171" s="15" t="s">
@@ -4827,18 +4833,18 @@
       <c r="D171" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E171" s="16" t="s">
+      <c r="E171" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F171" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G171" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
+      <c r="F171" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G171" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="21"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B172" s="15" t="s">
@@ -4850,18 +4856,18 @@
       <c r="D172" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="E172" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F172" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G172" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="20"/>
+      <c r="F172" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G172" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+      <c r="J172" s="21"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B173" s="15" t="s">
@@ -4873,18 +4879,18 @@
       <c r="D173" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E173" s="16" t="s">
+      <c r="E173" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F173" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G173" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
+      <c r="F173" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G173" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+      <c r="J173" s="21"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B174" s="15" t="s">
@@ -4896,18 +4902,18 @@
       <c r="D174" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E174" s="16" t="s">
+      <c r="E174" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F174" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G174" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
+      <c r="F174" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G174" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+      <c r="J174" s="21"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B175" s="15" t="s">
@@ -4919,18 +4925,18 @@
       <c r="D175" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E175" s="16" t="s">
+      <c r="E175" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F175" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G175" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
+      <c r="F175" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G175" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="21"/>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B176" s="15" t="s">
@@ -4942,18 +4948,18 @@
       <c r="D176" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E176" s="16" t="s">
+      <c r="E176" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F176" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G176" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
+      <c r="F176" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G176" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="21"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B177" s="15" t="s">
@@ -4965,47 +4971,47 @@
       <c r="D177" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E177" s="16" t="s">
+      <c r="E177" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F177" s="18">
+      <c r="F177" s="19">
         <v>18750</v>
       </c>
-      <c r="G177" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
+      <c r="G177" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
+      <c r="J177" s="21"/>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B178" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C178" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D178" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E178" s="22" t="s">
+      <c r="B178" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F178" s="24">
+      <c r="F178" s="26">
         <v>18750</v>
       </c>
-      <c r="G178" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H178" s="25"/>
-      <c r="I178" s="25"/>
-      <c r="J178" s="26"/>
+      <c r="G178" s="26">
+        <v>781242</v>
+      </c>
+      <c r="H178" s="27"/>
+      <c r="I178" s="27"/>
+      <c r="J178" s="28"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B183" s="32" t="s">
+      <c r="B183" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C183" s="32"/>
+      <c r="C183" s="34"/>
       <c r="H183" s="1" t="s">
         <v>105</v>
       </c>
@@ -5013,10 +5019,10 @@
       <c r="J183" s="1"/>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B184" s="32" t="s">
+      <c r="B184" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C184" s="32"/>
+      <c r="C184" s="34"/>
       <c r="H184" s="1" t="s">
         <v>106</v>
       </c>
